--- a/dev/sample_datasets/sample1.xlsx
+++ b/dev/sample_datasets/sample1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,33 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8c73d8a0e9d71006/Documents/parcel/dev/sample_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBC44C82-66EF-4050-B974-70A9CC0E201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CDC8FEE-E8F2-49E8-A11C-DC6E4CDA1929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="14914" xr2:uid="{7C89C440-F77A-49DB-BD07-3EA912D5CE9C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="27634" windowHeight="14914"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sample1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="14">
   <si>
     <t>order_id</t>
   </si>
@@ -54,32 +40,35 @@
     <t>weight</t>
   </si>
   <si>
+    <t>MNOP</t>
+  </si>
+  <si>
+    <t>IJKL</t>
+  </si>
+  <si>
+    <t>YZ12</t>
+  </si>
+  <si>
+    <t>UVWX</t>
+  </si>
+  <si>
     <t>ABCD</t>
   </si>
   <si>
     <t>EFGH</t>
   </si>
   <si>
-    <t>IJKL</t>
-  </si>
-  <si>
-    <t>MNOP</t>
-  </si>
-  <si>
     <t>QRST</t>
   </si>
   <si>
-    <t>UVWX</t>
-  </si>
-  <si>
-    <t>YZ12</t>
+    <t>quantity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,16 +76,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -104,15 +393,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,24 +901,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A4DE5F6-5243-4670-9D85-5829F082692D}">
-  <dimension ref="A1:F106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.07421875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.07421875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.4609375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,13 +929,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>14.56</v>
@@ -479,13 +952,16 @@
       <c r="F2">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>14.56</v>
@@ -499,13 +975,16 @@
       <c r="F3">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>8.66</v>
@@ -519,13 +998,16 @@
       <c r="F4">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>14.56</v>
@@ -539,13 +1021,16 @@
       <c r="F5">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>15.46</v>
@@ -559,13 +1044,16 @@
       <c r="F6">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>15.46</v>
@@ -579,13 +1067,16 @@
       <c r="F7">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>14.56</v>
@@ -599,13 +1090,16 @@
       <c r="F8">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>15.46</v>
@@ -619,13 +1113,16 @@
       <c r="F9">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>11.2</v>
@@ -639,13 +1136,16 @@
       <c r="F10">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>11.2</v>
@@ -659,13 +1159,16 @@
       <c r="F11">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>15.26</v>
@@ -679,13 +1182,16 @@
       <c r="F12">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>11.2</v>
@@ -699,13 +1205,16 @@
       <c r="F13">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>14.56</v>
@@ -719,13 +1228,16 @@
       <c r="F14">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>11.2</v>
@@ -739,13 +1251,16 @@
       <c r="F15">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>13.01</v>
@@ -759,13 +1274,16 @@
       <c r="F16">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>15.26</v>
@@ -779,13 +1297,16 @@
       <c r="F17">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>13.01</v>
@@ -799,13 +1320,16 @@
       <c r="F18">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>14.56</v>
@@ -819,13 +1343,16 @@
       <c r="F19">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <v>8.7100000000000009</v>
@@ -839,13 +1366,16 @@
       <c r="F20">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>14.56</v>
@@ -859,13 +1389,16 @@
       <c r="F21">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>8.7100000000000009</v>
@@ -879,13 +1412,16 @@
       <c r="F22">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>8.7100000000000009</v>
@@ -899,13 +1435,16 @@
       <c r="F23">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>11.2</v>
@@ -919,13 +1458,16 @@
       <c r="F24">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <v>8.7100000000000009</v>
@@ -939,13 +1481,16 @@
       <c r="F25">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>8.66</v>
@@ -959,13 +1504,16 @@
       <c r="F26">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>8.66</v>
@@ -979,13 +1527,16 @@
       <c r="F27">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>15.26</v>
@@ -999,13 +1550,16 @@
       <c r="F28">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>15.26</v>
@@ -1019,13 +1573,16 @@
       <c r="F29">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>15.26</v>
@@ -1039,13 +1596,16 @@
       <c r="F30">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C31">
         <v>13.01</v>
@@ -1059,13 +1619,16 @@
       <c r="F31">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C32">
         <v>15.26</v>
@@ -1079,13 +1642,16 @@
       <c r="F32">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>11.2</v>
@@ -1099,13 +1665,16 @@
       <c r="F33">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <v>8.7100000000000009</v>
@@ -1119,13 +1688,16 @@
       <c r="F34">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>14.56</v>
@@ -1139,13 +1711,16 @@
       <c r="F35">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C36">
         <v>13.01</v>
@@ -1159,13 +1734,16 @@
       <c r="F36">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>11.2</v>
@@ -1179,13 +1757,16 @@
       <c r="F37">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C38">
         <v>8.66</v>
@@ -1199,13 +1780,16 @@
       <c r="F38">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>8.7100000000000009</v>
@@ -1219,13 +1803,16 @@
       <c r="F39">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>14.56</v>
@@ -1239,13 +1826,16 @@
       <c r="F40">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C41">
         <v>15.46</v>
@@ -1259,13 +1849,16 @@
       <c r="F41">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42">
         <v>8.66</v>
@@ -1279,13 +1872,16 @@
       <c r="F42">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43">
         <v>15.46</v>
@@ -1299,13 +1895,16 @@
       <c r="F43">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C44">
         <v>8.7100000000000009</v>
@@ -1319,13 +1918,16 @@
       <c r="F44">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>8.7100000000000009</v>
@@ -1339,13 +1941,16 @@
       <c r="F45">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C46">
         <v>8.7100000000000009</v>
@@ -1359,13 +1964,16 @@
       <c r="F46">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>1</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <v>8.7100000000000009</v>
@@ -1379,13 +1987,16 @@
       <c r="F47">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>15.46</v>
@@ -1399,13 +2010,16 @@
       <c r="F48">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C49">
         <v>8.7100000000000009</v>
@@ -1419,13 +2033,16 @@
       <c r="F49">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>13.01</v>
@@ -1439,13 +2056,16 @@
       <c r="F50">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C51">
         <v>15.46</v>
@@ -1459,13 +2079,16 @@
       <c r="F51">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C52">
         <v>8.7100000000000009</v>
@@ -1479,13 +2102,16 @@
       <c r="F52">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>15.46</v>
@@ -1499,13 +2125,16 @@
       <c r="F53">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54">
         <v>11.2</v>
@@ -1519,13 +2148,16 @@
       <c r="F54">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>13.01</v>
@@ -1539,13 +2171,16 @@
       <c r="F55">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C56">
         <v>8.7100000000000009</v>
@@ -1559,13 +2194,16 @@
       <c r="F56">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <v>13.01</v>
@@ -1579,13 +2217,16 @@
       <c r="F57">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C58">
         <v>8.7100000000000009</v>
@@ -1599,13 +2240,16 @@
       <c r="F58">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C59">
         <v>14.56</v>
@@ -1619,13 +2263,16 @@
       <c r="F59">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C60">
         <v>11.2</v>
@@ -1639,13 +2286,16 @@
       <c r="F60">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C61">
         <v>15.26</v>
@@ -1659,13 +2309,16 @@
       <c r="F61">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C62">
         <v>15.46</v>
@@ -1679,13 +2332,16 @@
       <c r="F62">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C63">
         <v>15.26</v>
@@ -1699,13 +2355,16 @@
       <c r="F63">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C64">
         <v>15.46</v>
@@ -1719,13 +2378,16 @@
       <c r="F64">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C65">
         <v>15.26</v>
@@ -1739,13 +2401,16 @@
       <c r="F65">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C66">
         <v>15.26</v>
@@ -1759,13 +2424,16 @@
       <c r="F66">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C67">
         <v>14.56</v>
@@ -1779,13 +2447,16 @@
       <c r="F67">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C68">
         <v>11.2</v>
@@ -1799,13 +2470,16 @@
       <c r="F68">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C69">
         <v>13.01</v>
@@ -1819,13 +2493,16 @@
       <c r="F69">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>15.26</v>
@@ -1839,13 +2516,16 @@
       <c r="F70">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>2</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71">
         <v>14.56</v>
@@ -1859,13 +2539,16 @@
       <c r="F71">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>2</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>15.46</v>
@@ -1879,13 +2562,16 @@
       <c r="F72">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>4</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C73">
         <v>8.7100000000000009</v>
@@ -1899,13 +2585,16 @@
       <c r="F73">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C74">
         <v>14.56</v>
@@ -1919,13 +2608,16 @@
       <c r="F74">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75">
         <v>8.66</v>
@@ -1939,13 +2631,16 @@
       <c r="F75">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C76">
         <v>15.26</v>
@@ -1959,13 +2654,16 @@
       <c r="F76">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C77">
         <v>8.7100000000000009</v>
@@ -1979,13 +2677,16 @@
       <c r="F77">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C78">
         <v>8.7100000000000009</v>
@@ -1999,13 +2700,16 @@
       <c r="F78">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C79">
         <v>8.7100000000000009</v>
@@ -2019,13 +2723,16 @@
       <c r="F79">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C80">
         <v>15.46</v>
@@ -2039,13 +2746,16 @@
       <c r="F80">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C81">
         <v>11.2</v>
@@ -2059,13 +2769,16 @@
       <c r="F81">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C82">
         <v>15.46</v>
@@ -2079,13 +2792,16 @@
       <c r="F82">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>1</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>8.66</v>
@@ -2099,13 +2815,16 @@
       <c r="F83">
         <v>15.75</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>2</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C84">
         <v>8.7100000000000009</v>
@@ -2119,13 +2838,16 @@
       <c r="F84">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C85">
         <v>14.56</v>
@@ -2139,13 +2861,16 @@
       <c r="F85">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C86">
         <v>13.01</v>
@@ -2159,13 +2884,16 @@
       <c r="F86">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C87">
         <v>13.01</v>
@@ -2179,13 +2907,16 @@
       <c r="F87">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C88">
         <v>15.46</v>
@@ -2199,13 +2930,16 @@
       <c r="F88">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C89">
         <v>13.01</v>
@@ -2219,13 +2953,16 @@
       <c r="F89">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C90">
         <v>13.01</v>
@@ -2239,13 +2976,16 @@
       <c r="F90">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G90">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C91">
         <v>13.01</v>
@@ -2259,13 +2999,16 @@
       <c r="F91">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C92">
         <v>15.46</v>
@@ -2279,13 +3022,16 @@
       <c r="F92">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C93">
         <v>15.26</v>
@@ -2299,13 +3045,16 @@
       <c r="F93">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C94">
         <v>13.01</v>
@@ -2319,13 +3068,16 @@
       <c r="F94">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>2</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C95">
         <v>8.7100000000000009</v>
@@ -2339,13 +3091,16 @@
       <c r="F95">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C96">
         <v>11.2</v>
@@ -2359,13 +3114,16 @@
       <c r="F96">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C97">
         <v>13.01</v>
@@ -2379,13 +3137,16 @@
       <c r="F97">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>2</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C98">
         <v>15.46</v>
@@ -2399,13 +3160,16 @@
       <c r="F98">
         <v>10.45</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G98">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C99">
         <v>8.7100000000000009</v>
@@ -2419,13 +3183,16 @@
       <c r="F99">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C100">
         <v>14.56</v>
@@ -2439,10 +3206,16 @@
       <c r="F100">
         <v>15.77</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A101">
+        <v>2</v>
+      </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C101">
         <v>8.7100000000000009</v>
@@ -2456,10 +3229,16 @@
       <c r="F101">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A102">
+        <v>3</v>
+      </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C102">
         <v>11.2</v>
@@ -2473,10 +3252,16 @@
       <c r="F102">
         <v>10.78</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G102">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A103">
+        <v>2</v>
+      </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C103">
         <v>15.26</v>
@@ -2490,10 +3275,16 @@
       <c r="F103">
         <v>19.940000000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>2</v>
+      </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C104">
         <v>8.7100000000000009</v>
@@ -2507,10 +3298,16 @@
       <c r="F104">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>7</v>
+      </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C105">
         <v>13.01</v>
@@ -2524,10 +3321,16 @@
       <c r="F105">
         <v>10.87</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>5</v>
+      </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106">
         <v>8.66</v>
@@ -2540,6 +3343,9 @@
       </c>
       <c r="F106">
         <v>15.75</v>
+      </c>
+      <c r="G106">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
